--- a/biology/Biochimie/Sécologanine/Sécologanine.xlsx
+++ b/biology/Biochimie/Sécologanine/Sécologanine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>S%C3%A9cologanine</t>
+          <t>Sécologanine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La sécologanine est un séco-iridoïde, de formule C17H24O10. C'est un métabolite végétal notamment présent chez Lonicera japonica et Symphoricarpos orbiculatus.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>S%C3%A9cologanine</t>
+          <t>Sécologanine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Biochimie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Comme tous les terpénoïdes chez les plantes,  la sécologanine est dérivée du composé IPP (isopentényl diphosphate) formé dans la voie du mévalonate. Elle est synthétisée par l'enzyme sécologanine synthase (en) à partir de la loganine[3]. Elle forme de l'ipécoside en combinaison avec la dopamine. Plus important, elle sert de substrat, elle et la tryptamine, à l'enzyme strictosidine synthase (en) pour former par la réaction de condensation de Pictet-Spengler la strictosidine. Ce dernier est un intermédiaire clé dans la biosynthèse des alcaloïdes indole-terpéniques[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Comme tous les terpénoïdes chez les plantes,  la sécologanine est dérivée du composé IPP (isopentényl diphosphate) formé dans la voie du mévalonate. Elle est synthétisée par l'enzyme sécologanine synthase (en) à partir de la loganine. Elle forme de l'ipécoside en combinaison avec la dopamine. Plus important, elle sert de substrat, elle et la tryptamine, à l'enzyme strictosidine synthase (en) pour former par la réaction de condensation de Pictet-Spengler la strictosidine. Ce dernier est un intermédiaire clé dans la biosynthèse des alcaloïdes indole-terpéniques.
 </t>
         </is>
       </c>
